--- a/data/trans_camb/P35_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P35_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 3,22</t>
+          <t>-11,26; 4,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 2,21</t>
+          <t>-10,24; 5,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 2,36</t>
+          <t>-13,05; 2,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 1,25</t>
+          <t>-5,91; 5,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 1,34</t>
+          <t>-6,4; 3,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 0,97</t>
+          <t>-4,99; 6,37</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 2,62</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 2,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; 2,16</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,96%</t>
+          <t>-22,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,64%</t>
+          <t>-16,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>-35,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,24%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,99%</t>
+          <t>-14,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,14%</t>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-13,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-14,3%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-17,54%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,34; 26,47</t>
+          <t>-57,28; 34,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,67; 17,22</t>
+          <t>-52,33; 39,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 42,68</t>
+          <t>-64,61; 21,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,94; 22,61</t>
+          <t>-50,32; 83,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,43; 14,38</t>
+          <t>-57,97; 56,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,88; 9,37</t>
+          <t>-46,1; 99,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-44,07; 25,73</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-45,38; 30,12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-47,43; 22,32</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 10,37</t>
+          <t>-12,03; 9,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 8,12</t>
+          <t>-12,81; 8,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,78</t>
+          <t>-13,27; 8,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,12</t>
+          <t>-4,84; 1,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 5,71</t>
+          <t>-3,29; 3,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 5,03</t>
+          <t>-3,27; 3,22</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 4,8</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 5,78</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; 5,16</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>-6,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>-58,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>-3,76%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-3,93%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 58,69</t>
+          <t>-40,15; 54,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 45,77</t>
+          <t>-42,34; 48,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,99; 341,64</t>
+          <t>-45,31; 47,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,51; 298,72</t>
+          <t>-100,0; 267,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 58,68</t>
+          <t>-77,82; 443,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 52,37</t>
+          <t>-77,2; 303,28</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-40,83; 51,25</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-38,3; 62,11</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-38,96; 57,17</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-7,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-8,26</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-7,23</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-5,34</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-6,45</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 8,3</t>
+          <t>-31,68; 12,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 15,68</t>
+          <t>-29,0; 13,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 3,07</t>
+          <t>-29,6; 18,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 4,79</t>
+          <t>-19,92; 7,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 2,67</t>
+          <t>-17,56; 12,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 7,65</t>
+          <t>-22,3; 4,09</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-20,12; 3,82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,36; 5,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-18,47; 6,57</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,07%</t>
+          <t>-40,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>-34,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-46,5%</t>
+          <t>-23,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-29,57%</t>
+          <t>-44,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-33,92%</t>
+          <t>-26,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,33%</t>
+          <t>-62,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-42,11%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-31,1%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-37,54%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,17; 62,5</t>
+          <t>-88,15; 142,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,62; 112,38</t>
+          <t>-84,1; 148,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,12; 214,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,03; 240,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-71,69; 32,2</t>
+          <t>-85,46; 270,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,51; 73,09</t>
+          <t>-100,0; 214,52</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-81,63; 51,09</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-75,19; 59,25</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-78,48; 79,66</t>
         </is>
       </c>
     </row>
@@ -1069,17 +1280,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,12 +1300,27 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,89</t>
+          <t>-9,94; 3,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 3,02</t>
+          <t>-9,5; 4,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,65</t>
+          <t>-10,78; 2,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,13</t>
+          <t>-4,41; 2,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,82</t>
+          <t>-4,35; 2,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,78</t>
+          <t>-3,74; 3,53</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 1,66</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 2,38</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 2,09</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>-12,32%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>-20,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,74%</t>
+          <t>-17,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>-12,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,19%</t>
+          <t>-4,8%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-13,62%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-10,04%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-14,09%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 24,28</t>
+          <t>-40,52; 20,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 19,43</t>
+          <t>-39,06; 27,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,86; 40,85</t>
+          <t>-44,68; 15,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 26,24</t>
+          <t>-53,17; 44,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 17,91</t>
+          <t>-50,91; 43,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 17,54</t>
+          <t>-46,21; 75,92</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-34,94; 14,35</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-33,26; 21,65</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-35,87; 19,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
